--- a/Deliverables/InfoProjectProductBacklog.xlsx
+++ b/Deliverables/InfoProjectProductBacklog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Priority</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Why</t>
   </si>
   <si>
-    <t>user</t>
+    <t>nurse</t>
   </si>
   <si>
     <t>patient records can be created and then stored</t>
@@ -52,10 +52,10 @@
     <t>so that records are protected</t>
   </si>
   <si>
-    <t>doctor/nurse info can be created and stored</t>
-  </si>
-  <si>
-    <t>so that appointments can be made, and have their activity tracked</t>
+    <t>appointments can be viewed before they occured</t>
+  </si>
+  <si>
+    <t>so that they can be reviewed</t>
   </si>
   <si>
     <t>appointments can be made with a doctor</t>
@@ -64,35 +64,86 @@
     <t>so that patients can get help</t>
   </si>
   <si>
-    <t>appointment info can be updated</t>
+    <t>appointment info can be updated prior to appointed date</t>
   </si>
   <si>
     <t>so that information can be updated</t>
   </si>
   <si>
+    <t>results from checkup routine are recorded</t>
+  </si>
+  <si>
+    <t>so that the doctor can make an intial diagnosis</t>
+  </si>
+  <si>
+    <t>able to create and modify initial diagnoses</t>
+  </si>
+  <si>
+    <t>so that the diagnosis can be stored and changed if need be</t>
+  </si>
+  <si>
+    <t>able to create and modify final diagnoses</t>
+  </si>
+  <si>
+    <t>so that the final diagnosis can be stored</t>
+  </si>
+  <si>
     <t>tests can be ordered for a patient</t>
   </si>
   <si>
     <t>so that a diagnosis can be achieved</t>
   </si>
   <si>
+    <t>test can be deleted for a patient before an order is submitted</t>
+  </si>
+  <si>
+    <t>so that unneeded tests are not being sent out</t>
+  </si>
+  <si>
+    <t>test results are editable before confirmation</t>
+  </si>
+  <si>
+    <t>so that when the test info can contain the results</t>
+  </si>
+  <si>
+    <t>lock the visit details after a final diagnosis is entered</t>
+  </si>
+  <si>
+    <t>so that no irrevelent/unnecessary data is entered after the diagnosis is recorded</t>
+  </si>
+  <si>
     <t>patient records can be searched for</t>
   </si>
   <si>
-    <t>so that finding patient ifo is easier</t>
-  </si>
-  <si>
-    <t>patient and appointment records can be viewed when found</t>
+    <t>so that finding patient info is easier</t>
+  </si>
+  <si>
+    <t>patient visit can be viewed</t>
   </si>
   <si>
     <t>so that records can be reviewed</t>
+  </si>
+  <si>
+    <t>administrators</t>
+  </si>
+  <si>
+    <t>provide an alternate view for administrators that allow SQL queries</t>
+  </si>
+  <si>
+    <t>so that administrators with SQL knowledge can run their own queries</t>
+  </si>
+  <si>
+    <t>patient visit info can be edited before appointment date</t>
+  </si>
+  <si>
+    <t>so that errors can be fixed or information changed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -102,6 +153,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -129,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -140,6 +192,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -352,6 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -361,7 +417,7 @@
     <col customWidth="1" min="1" max="1" width="12.57"/>
     <col customWidth="1" min="2" max="2" width="24.0"/>
     <col customWidth="1" min="3" max="3" width="56.14"/>
-    <col customWidth="1" min="4" max="4" width="54.29"/>
+    <col customWidth="1" min="4" max="4" width="66.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,16 +491,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2.0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -469,7 +525,7 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -478,7 +534,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -492,7 +548,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -506,7 +562,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -518,7 +574,122 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>